--- a/appunti.xlsx
+++ b/appunti.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\crunch_net\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1DB550-328F-458F-8387-4A538F14C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+  <si>
+    <t>Cose da fare</t>
+  </si>
+  <si>
+    <t>Evitare Louvain se sparso =&gt; Stochastic Block Model</t>
+  </si>
+  <si>
+    <t>Vedere se nodo appartiene nel tempo ad una communità</t>
+  </si>
+  <si>
+    <t>Togliere Loans</t>
+  </si>
+  <si>
+    <t>Come network è costruito</t>
+  </si>
+  <si>
+    <t>Calcolo centralità</t>
+  </si>
+  <si>
+    <t>Centralities</t>
+  </si>
+  <si>
+    <t>Percolation</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>PESI?</t>
+  </si>
+  <si>
+    <t>Dispersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificare </t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>betweenness</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>trophic levels</t>
+  </si>
+  <si>
+    <t>Misura per grafi direzionati. Deprecated(?) per nx</t>
+  </si>
+  <si>
+    <t>harmonic</t>
+  </si>
+  <si>
+    <t>enumerate all cliques</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core number </t>
+  </si>
+  <si>
+    <t>rich club coefficients</t>
+  </si>
+  <si>
+    <t>closeness_vitality</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Teniamo ma non computiamo</t>
+  </si>
+  <si>
+    <t>eigen</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>closeness</t>
+  </si>
+  <si>
+    <t>pagerank</t>
+  </si>
+  <si>
+    <t>closeness_incremental</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>Identica a betweenness? (no, ma molto imili)</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>betweenness newman</t>
+  </si>
+  <si>
+    <t>Da vedere</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +156,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +189,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +479,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/appunti.xlsx
+++ b/appunti.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\GitHub\crunch_net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1DB550-328F-458F-8387-4A538F14C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6DD78-4478-4317-B299-C2EDCF93C158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="680" yWindow="3290" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I5" sqref="B5:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +501,7 @@
     <col min="3" max="3" width="41.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -517,8 +526,12 @@
         <v>10</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <f t="shared" ref="I2:I20" si="0">IF(C2="OK", 1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -532,8 +545,12 @@
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -547,8 +564,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -558,8 +579,12 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -569,48 +594,72 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -620,56 +669,84 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -679,21 +756,35 @@
       <c r="D19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <f>SUM(I2:I20)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
